--- a/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
+++ b/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnerermichael/Desktop/Informatik/4. Semester/PS SoftwareEngineering/Implementierung/g1t1/time-records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnerermichael/Desktop/Informatik/4. Semester/PS SoftwareEngineering/Implementierung/g1t1/documents/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07819B18-04B6-B04F-A038-70DD5ECB4A5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F851AC8-9A8D-C242-A9B7-665DF9CA99BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>Game and round validierung</t>
+  </si>
+  <si>
+    <t>GameRoom adjustments</t>
+  </si>
+  <si>
+    <t>More adjustments, controllers</t>
+  </si>
+  <si>
+    <t>Endspurt</t>
+  </si>
+  <si>
+    <t>Besprechung Abnahmetest</t>
+  </si>
+  <si>
+    <t>Abnahmetests</t>
+  </si>
+  <si>
+    <t>Mängel und Layout</t>
   </si>
 </sst>
 </file>
@@ -610,7 +628,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1236,59 +1254,158 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>43960</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>43961</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>43962</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>43963</v>
+      </c>
+      <c r="B48" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>43964</v>
+      </c>
+      <c r="B49" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>43968</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>43970</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B53" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>43976</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8"/>

--- a/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
+++ b/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnerermichael/Desktop/Informatik/4. Semester/PS SoftwareEngineering/Implementierung/g1t1/documents/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F851AC8-9A8D-C242-A9B7-665DF9CA99BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDD2599-53FB-B14D-8AC6-D8F5369CC084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -628,7 +628,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1408,9 +1408,18 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>43978</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8"/>

--- a/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
+++ b/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnerermichael/Desktop/Informatik/4. Semester/PS SoftwareEngineering/Implementierung/g1t1/documents/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDD2599-53FB-B14D-8AC6-D8F5369CC084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1916775-DE4C-6348-8560-A9675807D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Mängel und Layout</t>
+  </si>
+  <si>
+    <t>Enter Midgame</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
   <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1422,19 +1425,46 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>43984</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>43985</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>43988</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8"/>

--- a/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
+++ b/documents/time-records/Vorlage-0-Zeitaufzeichnung-Sonnerer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnerermichael/Desktop/Informatik/4. Semester/PS SoftwareEngineering/Implementierung/g1t1/documents/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1916775-DE4C-6348-8560-A9675807D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F03629-9F3E-5C41-97B3-2BC7C93397A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>Datum</t>
   </si>
@@ -217,6 +226,24 @@
   </si>
   <si>
     <t>Enter Midgame</t>
+  </si>
+  <si>
+    <t>Systemtest</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Präparation Abgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erste Überlegungen </t>
+  </si>
+  <si>
+    <t>Vorbereitung</t>
   </si>
 </sst>
 </file>
@@ -297,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -311,6 +338,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -625,24 +653,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:F1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="35">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -656,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="8">
         <v>43891</v>
       </c>
@@ -669,8 +697,9 @@
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8">
         <v>43898</v>
       </c>
@@ -684,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="8">
         <v>43899</v>
       </c>
@@ -698,7 +727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="8">
         <v>43900</v>
       </c>
@@ -712,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>43903</v>
       </c>
@@ -726,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>43903</v>
       </c>
@@ -740,7 +769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>43905</v>
       </c>
@@ -754,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>43904</v>
       </c>
@@ -768,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>43906</v>
       </c>
@@ -782,7 +811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>43907</v>
       </c>
@@ -796,7 +825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>43913</v>
       </c>
@@ -810,7 +839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>43915</v>
       </c>
@@ -824,7 +853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
         <v>43916</v>
       </c>
@@ -838,7 +867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>43916</v>
       </c>
@@ -852,7 +881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>43916</v>
       </c>
@@ -1233,7 +1262,7 @@
         <v>43959</v>
       </c>
       <c r="B43" s="7">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1275,7 +1304,7 @@
         <v>43961</v>
       </c>
       <c r="B46" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1467,74 +1496,200 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>43991</v>
+      </c>
+      <c r="B60" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>43998</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44000</v>
+      </c>
+      <c r="B65" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>43898</v>
+      </c>
+      <c r="B66" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>43912</v>
+      </c>
+      <c r="B67" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B68" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="8">
+        <v>43947</v>
+      </c>
+      <c r="B69" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>43961</v>
+      </c>
+      <c r="B70" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8">
+        <v>43982</v>
+      </c>
+      <c r="B71" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>43996</v>
+      </c>
+      <c r="B72" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>44003</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="8"/>
@@ -6187,7 +6342,22 @@
       <c r="D1003" s="3"/>
     </row>
     <row r="1004" spans="1:4">
-      <c r="A1004" s="2"/>
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="7"/>
+      <c r="D1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="7"/>
+      <c r="D1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="7"/>
+      <c r="D1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6199,7 +6369,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9 C10:C1003</xm:sqref>
+          <xm:sqref>C2:C1006</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
